--- a/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute. We will then hear from our witnesses.    Without objection, ladies, your prepared statements will be made a part of the record and members may have 5 days to insert statements and questions for the record, subject to the length limitation in the rules.    The chair now recognizes herself for 5 minutes.    We are here today to discuss the President's FY17 budget request for the Middle East and North Africa Region. I fully support the request to honor the terms of the Memorandum of Understanding, MOU, with our closest ally, the Democratic Jewish State of Israel and helping to ensure that she has what she needs to defend herself and her citizens.    In the aftermath of the weak and dangerous Iran nuclear deal and the corresponding race to arms by many of the nations in the region that feel threatened by a newly-empowered Iran, Israel is facing a new dangerous environment, so it is critical that we ensure that Israel's qualitative military edge is intact and vigorously enforced, as our policy stipulates and as our laws state. So, I strongly urge the administration to conclude the negotiations on a new robust MOU with Israel in an expeditious manner and in a way that reflects the new reality that the Jewish State faces in the region.    I am also pleased that the administration is following through with the additional support for Jordan, as agreed upon in last year's MOU, with $1 billion to help the Kingdom cope with the strain on its resources from the Syrian humanitarian crisis and the influx of refugees, as well as help provide Jordan with the tools that it needs to continue to fight on the frontlines against ISIS.    However, this request for Jordan highlights one of the most noteworthy trends of the current request, which is the administration's continued shift to move a significant amount of assistance from the regular Foreign Affairs budget to the Overseas Contingency Operations, OCO accounts. Nearly half of this year's budget request is OCO funds, $3.5 billion of the $7.1 billion for the Middle East and North Africa in non-humanitarian bilateral aid. That is over 100 percent more than last year's request, with almost all of the $1 billion for Jordan coming in OCO. This is a troubling trend that the administration needs to explain in greater detail, as we are seeing funds that should be in the base budget that are being shifted into the OCO fund.    Tunisia is strategically important and this is where the democratic transition has been referred to by the administration as a model for other states in the Arab world. However, when compared to Egypt, Jordan, or even Lebanon, our aid package to Tunisia does not really indicate that the administration views its future as a high priority. The people and Government of Tunisia needs us now more than ever.    While this year's request may represent an increase, foreign military financing assistance for Tunisia's security accounts for $45 million, while slightly more than that is being provided for democracy and governance and economic assistance. Tunisia is facing some trying times at the moment, and we want to support it and ensure that it remains on the transition toward democracy. Yet, the administration does not appear to be making a successful transition a priority in this request.    While Lebanon may be facing significant problems as a result of the Syrian conflict, it has been mired in a political crisis for nearly 2 years and has no elected leader, and concerns remain over Hezbollah and Iran's increasing influence in Lebanon. This raises questions over how our assistance to Lebanon is being used to advance our interests. The same can be said over continued assistance requests for Libya or Yemen, two other countries in dire political straits.    When it comes to strategic interest, in the region, Egypt remains near the top. Egypt's security and stability are key U.S. national security interests, which is why we continue to provide Cairo with the foreign military financing assistance it needs and we will continue to work with Egypt to tackle the terrorist threat, in the Sinai.    Yet, in Egypt we are facing a significant pipeline issue where between $500 million to $700 million in previous years funds have not been spent nor obligated. Yet, the administration continues to request $150 million in ESF for Egypt without presenting a concrete plan on how it will spend these unobligated funds and without having the flexibility to operate in Egypt that we once had.    When we discuss using our assistance as effectively and efficiently as possible, we have to talk about our response to the Syrian humanitarian crisis. The United States has been the single largest donor in response to the Syrian humanitarian crisis by providing over $5 billion and we'll continue to do what we can, but our policies to get at the root cause of the problem have failed and Assad still remains in power. While most of this assistance is being funneled through the U.N., it raises questions about whether or not we are maximizing our assistance in this humanitarian response.    But when talking about using our assistance effectively in furtherance of our interests, perhaps the most egregious failure of this budget request is the continued request by the administration for hundreds of millions in assistance for the West Bank and Gaza. The Palestinian Authority and Abu Mazen have continued to incite violence against Israel, have continued to support terrorism, have continued to fund the salaries of terrorists in Israeli prisons as well as their family members. And the Palestinians continue to seek to de-legitimize the Jewish State at the United Nations and are moving forward with plans to undermine the peace process by seeking unilateral statehood. The administration may argue that it has sought less for the Palestinian Authority in this year's budget request, but we should have cut off all assistance to the PA for violating several provisions of U.S. law.    So, I welcome our distinguished guests. I look forward to hearing from the administration about the justifications for its budget request and how these line up with the administration's objectives for the coming year in the Middle East and North Africa.    With that, I am so pleased to yield to the ranking member, my good friend, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Madam Chairman. I hope you feel better.    And thank you, Assistant Administrator Alexander and Assistant Secretary Patterson, for being here today. It is a pleasure to welcome you back to the subcommittee. We look forward to a positive discussion about the region.    I want to take a moment, again, to thank the hard-working USAID and State Department employees and Foreign Service Officers who work in dangerous and difficult places to help those in need and promote American values around the world. Their work too often goes unnoticed and underappreciated, and I just wanted to take a moment today to highlight what they do and to thank them for it.    It is no doubt that some of our greatest foreign policy challenges are in the Middle East and North Africa. New threats have emerged that endanger the security of the United States, our regional interests, and our regional partners. This year's State Department budget request for the region is $7.3 billion, a 9-percent increase from what we spent in 2015. Of the $6.1 billion requested in global humanitarian aid, $2 billion is to address the humanitarian crisis in Syria.    For over 5 years, the region has been struggling to deal with the effects of the war in Syria. The devastating humanitarian crisis will certainly have implications not just this coming year, but for years to come and for decades to come.    I have repeatedly expressed my deep frustration over the international response to the humanitarian crisis in Syria, but I would like to applaud the administration for the contribution that it has made to address this crisis, the largest from any donor country to date.    But, as the crisis continues to drag on, we must look for sustainable ways to support those displaced by war. Efforts to shore up host countries like Lebanon and Jordan must focus on increasing capacity of schools and healthcare centers, finding work that will allow refugees to contribute to the communities that are hosting them. I was pleased to see the conclusion last spring of the new MOU with our ally Jordan that will help to strengthen one of our best partners in the fight against ISIS.    We all know that the only end to this crisis will come through a political solution. Speaking yesterday, Ambassador Power said there is, and I quote, ``an inextricable linkage between the political transition negotiations--which, of course, urgently have to take place--the deterioration in humanitarian access, and the escalation of violence on the ground, which is having a very negative bearing on the cessation of hostilities, which had reduced violence substantially.'' There is so much that we have to be engaged in at so many levels in Syria.    In addition to Syria, the humanitarian situation in Yemen continues to worsen. As political talks stall, the needs of those on the ground are increasing, and the U.S. and other donor countries must be able to respond accordingly.    In Tunisia, we look for ways to bolster the country's economy and nascent democracy while stabilizing the security situation. The Tunisian Government has thus far responded well to the number of deadly attacks over the past year, and we have seen positive results from our efforts to help Tunisian security forces professionalize in these difficult circumstances.    However, it is troubling that the largest contingent of foreign fighters to ISIS are Tunisian, and the entrance of ISIS to Libya will continue to pose a threat to the region, and especially to Tunisia.    The security situation in Libya is tenuous. Just last week, U.S. General David Rodriguez, the outgoing Commander of AFRICOM, said that the number of ISIS fighters in Libya has doubled in the past year. That is why it is more important than ever that Libya move forward with implementing a unity government. A strong central government backed by Libyan security forces is the only way to keep ISIS at bay.    Combating ISIS in North Africa will require strong cooperation across the Maghreb. Morocco and Algeria must play a significant role in intelligence-sharing, both with its neighbors as well as with the U.S. and Europe, to track foreign fighters and terrorist cells. As we work to combat extremism, we appreciate the cooperation between Egypt and Israel in the Sinai and Egypt's efforts to control the flow of dangerous materials in and out of Gaza and destroy Hamas' terror tunnels.    But, however strong and necessary our security cooperation and coordination is, we must also prioritize human rights. Human rights must always be a part of the conversation, even when difficult. And I am troubled by continued reports of mass sentencing, restrictions on civil society, and most recently, the potential reopening of the NGO case that saw 43 NGO workers arrested and convicted, including several Americans.    We have also deepened our coordination with our GCC partners to confront mutual security threats, including Iranian aggression. These countries must also be committed to countering violent Islamic extremism and speaking out against the radicalism and terrorism. We must always be sure that nothing we do in the region threatens Israel's qualitative military edge. Israel remains under constant threat from Palestinian terror attacks, Hamas rockets, Hezbollah advanced weaponry, and ballistic missiles launched from Iran emblazoned with the words, ``Israel must be wiped off the earth.'' I would urge the administration to ramp up its efforts to conclude a new Memorandum of Understanding that will ensure that Israel has what she needs to defend herself for years to come.    As we continue to work toward the goal of two states for two peoples, I would hope that the administration will work to prevent any attempts to circumvent the direct negotiation process, which is the only way that peace can be achieved. Our efforts would be better served urging President Abbas to build up state institutions, to reform his economy, to commit to transparency and accountability, and to return to the negotiating table.    With respect to Iran, I cannot urge the administration enough to fulfill its promises to crack down on Iran's myriad of bad behavior, including the repeated missile tests in blatant disregard of international law, its egregious human rights violations, and its continued support for terrorism. The U.S. Navy last week intercepted a shipment of Iranian weapons bound for Yemen, and this continued bellicosity is unacceptable. No agreement precludes this country from sanctioning every person, every entity, and every sector involved in these dangerous activities. The Nuclear Agreement, as we all know, was meant to apply only to nuclear activities and the nuclear program. International law and U.S. law permits, and I think requires us, to take strong action to stop and to combat Iran's bad behavior in these other areas.    And I would also be remiss if, Secretary Patterson--if, Madam Chairman, you will just grant me an extra 30 seconds--I would be remiss if I didn't once again implore the administration to continue to working to bring home my constituent Robert Levinson. Just days before the ninth anniversary of Bob's disappearance last month, I had the honor of joining Bob's wife Christine and the Levinson children at a rally in Bob's hometown of Coral Springs in south Florida. No family deserves to go through what the Levinsons are going through, being away from their husband, their father, and grandfather, with no answers for 9 years. And I know that Secretary Kerry continues to push for Bob's return, but I would ask that this be the highest priority in every single discussion with the Iranians.    There is no substitute for robust American engagement and leadership in this challenging region as a whole, and I look forward to hearing how the President's budget request will help fulfill that goal and protect the security of this country and of our friends and allies in the Middle East and North Africa.    Thank you, Madam Chairman. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Madam Chair, for your dynamic leadership.    Secretary Patterson, you have provided that the top line for the State Department and for the Agency of International Development will have a budget of over $50 billion with around $35 billion in the base budget and $15 billion in OCO. I have seen firsthand America being successful in the Middle East and around the world to aid our allies for their citizens to have fulfilling lives.    The budget number is particularly significant this year because of the threat of Iran who stands to gain as much or two or three times this amount in cash windfall due to unfrozen assets as part of the tragic Iranian nuclear deal. We have seen Iranian support and financing of the Houthi rebels in Yemen, funding and support for Hamas in Hezbollah, providing rockets to threaten Israel, funding for terrorists and insurgents in Iraq, and support for Afghani Taliban for their terrorist activities. All of these groups have a goal of killing American military and bringing mass murder to families at home in the United States.    The concerns of Congress of the failing Iranian nuclear deal have been bipartisan. I particularly appreciate today the ranking member Ted Deutch raising issues and concerns. With all the United States can accomplish in the Middle East with the funding that we are providing, the damage that Iran stands to do in the region with $150 billion of cash windfall is dangerous. I look forward to continuing to work with my colleagues on the committee in ensuring proper oversight of the implementation of the bizarre Iranian nuclear deal.    Thank you.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Madam Chair and Ranking Member Deutch, for calling this hearing to assess President Obama's Fiscal Year 2017 budget request for the Middle East and North Africa.    And thank you, Ambassador Patterson and Administrator Alexander, for being here today. I look forward to hearing from you, and I want to thank you both for your dedication and your service to our country.    The Fiscal Year 2017 request of $7.17 billion for the region is an increase of almost 9 percent over Fiscal Year 2015 enacted levels. The vast security and humanitarian needs in the region certainly justify increased spending levels, and I look forward to hearing from our witnesses about how the United States will make sure this money is used for effectively to achieve American strategic priorities.    This budget request is an issue of critical importance, especially during this time of great flux and threats to global security. From the civil war in Syria and its subsequent humanitarian and refugee crisis to the threat of ISIL, Boko Haram, and other extremist groups who seek to undermine stability and security throughout the region, to many humanitarian perils faced by millions of people in the region, it is more important than ever that U.S. foreign assistance is targeted, responsive, and able to meet our principal goals.    As Ambassador Power states in her written testimony, the Middle East and North Africa present the most demanding challenges to U.S. foreign policy and national security. Through the work of the State Department and USAID, we must remain engaged and do all that we can to help the nations of this region to be more self-sufficient in terms of providing for its people through good governance, democratization, and less susceptible and better able to repel extremist threats.    Thank you, and I look forward to your testimony. And I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Madam Chair.    And for each of our two witnesses, it is incredibly an opportune time for you to be here. I have two areas of particular concern that I will be following up with questions on.    Ambassador Alexander, in your case the education of as many as 800,000 Syrians in Lebanon and countless more internally displaced concerns me in that USAID and all of our refugee organizations seem to be looking at doing, but not accomplishing the ultimate goal. Lebanon is ill-equipped to educate 500 to 800,000 additional students, and even if they were, they have no structural plan to do so.    Some of the programs USAID has begun with are interesting, including the radio broadcast as a form of education, but they fall far short of two goals. One is education that can be verified for purposes of higher education later. The second is a form of education that clearly allows us to have our imprint of non-radicalization on that education process. I think both of those fall clearly within, between the two of you, a requirement to make sure there is a strategic plan for all the youth in the region, both those who work much of the day and get limited education and those who may be able to participate in more conventional.    Secondly, Ambassador Patterson, you and I have visited many times. You are always at the center of tough situations. Your time in Egypt causes me to say this today: The multinational force observers has out lived its historic role. That has been made very clear by my own and another Congressman's visit to the region into the North Station. They are today simply sitting ducks hunkered down, highly protected, including massive EOD assets, for purposes of a count that has not been miscounted or misunderstood or argued for more than 8 years, even with a minor exception, and more than a decade without any real argument.    As you know, Israel today counts on very large forces of Egyptians to help with the fight against ISIS in the Sinai. I urge you to recognize that now is the time to recognize that that force existed, although technically to count number of soldiers and police, it really existed to ensure a peace in the region between two countries. Today that force must be positioned to assist both Israel and the Egyptians in recognizing where ISIS and Hamas are operating, what they are doing, and providing the eyes necessary to help them do their job better. I am not calling for a moment for the withdrawal of those troops or those personnel, brave as they are, but I want their purpose to be one of peacekeeping between two allies today in the war against ISIS. I hope you can take that back to Secretary Kerry on behalf of the committee.    And I thank the chairwoman for her indulgence.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Madam Chair.    I just thank you all for being here again, once again.    I had the honor of traveling with our chair, Mr. Royce, this past week. We were in Jordan, Iraq, and Tunisia, and it was quite an enlightening and rigorous schedule. Madam Chair, my back is still hurting from the body armor really.    But some takeaways. It is not only the threat of terrorism, which is real in so many of these countries in the Middle East, but they are in terrible economic crisis, to the point where--I will use Iraq as an example. I mean, they are not even able to pay for their own army.    There are a lot of moving parts, but what was very clear to me, No. 1, our own security and the security of allies, not only in the Middle East, but in Europe and other places, will be affected greatly by the stability in the Middle East.    My second takeaway was that, or this may be my third takeaway, is that our leadership is absolutely needed. There is no question about it, not only from a military point of view, but just in terms of economic development, education, humanitarian, other humanitarian assistance.    So, I very much look forward to what you have to say this morning. And again, thank you for your service.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. I would thank Chairwoman Ros-Lehtinen and Ranking Member Deutch for holding this hearing, and to our esteemed witnesses for testifying and sharing their valuable insight on an unstable, but crucial part of the world.    Ambassador Patterson, before assuming your current post, you were our Ambassador to Egypt and served during a very turbulent time. You had a unique perspective on the Muslim Brotherhood, one that I am hoping to hear more about from you today. For reasons unclear to me, the State Department still refuses to recognize the Muslim Brotherhood as a terrorist organization.    I am proud to cosponsor legislation in the House, the Muslim Brotherhood Terrorist Designation Act, and I am eager to see it on the Floor for a vote in front of the full House. In recent years, the copts have suffered terrible attacks and violence. The attacks were clearly well-planned and coordinated, not random acts of violence, as some have suggested. After listening to their rhetoric laced from remarks coming from their leadership, it is not surprising that they would take out their anger on Egypt's most vulnerable. To make matters worse, the Muslim Brotherhood's official account still espouses and congratulates violence while implicitly, if not explicitly, trying to encourage violence against the state and religious minorities.    I am disappointed the State Department hosted them for official meetings last year. When I questioned Secretary Kerry about this, he claimed that the State Department somehow didn't know they were part of the Muslim Brotherhood until after the visit, something I find difficult to believe.    As a country that promotes religious tolerance and acceptance all over the world, I find it reprehensible that the administration claims to promote these values, yet goes around and invites and holds meetings with the various people that have dedicated themselves to religious intolerance and violence.    I look forward to your testimony and explanation as to how much more damage the Muslim Brotherhood needs to cause before we call them terrorists.    Thank you. I yield back.</t>
   </si>
   <si>
@@ -133,18 +112,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Patterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Patterson. Thank you, Madam Chairman, Ranking Member Deutch, members of the subcommittee. Thank you for inviting us to appear before you today to discuss the President's Fiscal Year 2017 budget request. We appreciate the subcommittee's continued support and congratulate its initiatives, most recently, for the Hezbollah International Financing Prevention Act of 2015.    The Middle East and North Africa present the most demanding challenges to U.S. foreign policy and to our national security. As you know, the administration's highest priority continues to be the safety and security of the American people and the American homeland. This is why we are leading the global coalition that will defeat ISIL, are actively engaged in supporting the cessation of hostilities and political negotiations in Syria, and are advancing peace in Yemen and Libya. Each of these conflicts poses its own unique challenges to our national security with the potential for serious economic repercussions.    Continued full implementation of the Joint Comprehensive Plan of Action will ensure Iran's nuclear program remains exclusively peaceful. Nevertheless, we remain deeply concerned about Iran's destabilizing activities.    The President's foreign assistance request for the Bureau of Near Eastern Affairs is $7.3 billion. This includes $3.1 billion to support our enduring commitment to Israel's security, $1.5 billion for bilateral cooperation with Egypt to advance our national and regional security interests, and $1 billion to continue our strategic partnership with Jordan on issues ranging from countering violent extremism to advancing Middle East peace.    In the coming year, potential openings in Yemen and Libya further highlight how we must work to support U.S. engagement. We must be poised to further our relationship with the Libyan Government of National Accord as it works to reunite the country, revive the living economy, and confront ISIL. In Yemen, we must help the Yemenis reestablish governance, reclaim space from AQAP, and counter a growing ISIL threat, as well as revise their badly-damaged economy.    Our capacity to react quickly in changing environments like these will require your continued support and flexibility. However, we cannot focus on crises alone. There are examples of success in the region, and it is in our long-term interest to invest strategically.    In Tunisia, we see a burgeoning democracy in need of our support, and in Morocco our strong partnership spans from security cooperation to addressing economic challenges. This budget provides the resources to support U.S. engagement with both Morocco and Tunisia.    As part of our efforts to degrade and defeat ISIL, the U.S. is leading a coalition of 66 states and organizations. The request also includes funding to provide training and equipment to forces fighting ISIL, help stabilize communities liberating from ISIL and Syria and Iraq, strengthens our regional partners, and supports a political solution to the Syrian civil war.    For Iraq, the FY17 request includes $510 million, an increase over previous years, largely to provide increased economic assistance to stabilize the Iraqi economy and maintain critical security assistance.    In Syria, the request of nearly $239 million will provide support to the moderate Syrian opposition to help achieve a political solution and counter extremist threats, including from ISIL and Jabhat al-Nusra.    In Jordan, we remain a strong supporter of the government's efforts to maintain security, stability, and prosperity, particularly in light of the crises on Jordan's border.    And in Lebanon, we are supporting their efforts to cope with the spillover effects of the crisis in Syria.    Our request also represents our firm commitment to working with Israel and other regional partners to counter Iran's destabilizing activities in the region. Let me assure you that Israel's security remains a top priority for the administration. It is critical for both the Israelis and the Palestinians that steps are taken to promote stability. So, we are requesting $364 million in foreign assistance to support the Palestinian people with programs to bolster economic development, improve health and education, and enhance security on the ground.    In Egypt, we have long enjoyed a strategic relationship which furthers our national interests. Nonetheless, we continue to press the Egyptians about our concerns regarding their human rights record.    Madam Chairman, I also want to stress the importance of our regional programs. They not only complement our ongoing bilateral assistance, but they are also a tool for advancing our interests.    The Middle East Partnership Initiative furthers U.S. engagement with civil society across the region. It empowers women, fosters entrepreneurship, engages at-risk youth, and develops the capacity of local organizations.    I want to thank this subcommittee for your ongoing support as we continue to advance our interests in the Middle East. I look forward to answering your questions.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you, Madam Ambassador.</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Alexander. Thank you, Chairman Ros-Lehtinen and Ranking Member Deutch, members of the subcommittee. We appreciate the opportunity to be up here to talk about the President's Fiscal Year 2017 budget.    The region is faced with complex challenges driven by deep political divides, economic and social forces. It is critical that the U.S. maintain its engagement and interest in this region. Conflict and the resulting humanitarian and refugee crisis have significantly compounded the challenges. These conflicts have cut economic output in Syria by 30 percent. The influx of refugees has lowered wages in some of the most vulnerable host communities. And most alarming is 13 million children are out of school due to this conflict.    It may be useful to think of USAID's response in three critical areas: Mitigating the human impact of ongoing conflicts, supporting core U.S. national security objectives, and fostering inclusive development and reform opportunities as they arise. My statement for the record includes more details of AID's priorities, but I wanted to go through a few here.    Serious development challenges and indicators show a rollback of nearly four decades due to the conflict. In addition to the U.S. remaining the world's largest donor of humanitarian assistance for the Syrian conflict, the President's budget will request continued American people's support for the development needs within Syria as well as critical support for Syria's neighbors.    The crisis has placed an enormous strain on the neighbors, many neighboring countries, including our ally Jordan. We continue our six-decade partnership with Jordan to address the development challenges, including low economic growth, overcrowded schools, and scarce water resources.    NBC Nightly News recently did a story about a school principal in Jordan who was trying to talk about the overcrowding in her school and that Syrian parents continued to come and ask that their children be allowed in. She offered that they could come if they just brought a chair. We work with this principal and thousands of other educators like her to make sure that we are providing these services.    In Lebanon, some estimates say that one out of every three people is a refugee. The President's request would support the Lebanese communities hosting refugees, helping them provide basic services like education, water, infrastructure, and support municipalities and civil societies, as well as job creation and economic growth activities.    For Iraq, the President's 2017 request includes an increase of funding to help address the grave economic challenges that they are facing. We will also work with Baghdad and the local governments in support of decentralization efforts. Our support will ease the burden of Iraq's fiscal crisis as it struggles to defeat ISIL and stabilize liberated areas.    The U.S. Government and the American people have a longstanding relationship with Egypt and the Egyptian people. USAID continues to work in partnership with the Egyptian people, but we remain deeply concerned about the restrictions in space for civil society and the reported investigations in NGOs by the Government of Egypt. USAID and the State Department continue to engage with our Egyptian counterparts on this issue.    Given the current challenging environment, AID continues to focus its programs in areas where we believe we can achieve results. In the West Bank and Gaza, U.S. assistance to Palestinian people is a key part of the U.S. commitment to negotiate a two-state solution. Our assistance contributes to building a more democratic, stable, prosperous, and secure Palestinian society, a goal that is in the interest not only of the Palestinian, but of Israel and the United States as well.    For Fiscal Year 2017, we will promote stability in the West Bank by improving service provision and healthcare, education, water, and roads, while also supporting the private sector and civil society. In Gaza, we will provide needed humanitarian assistance while at the same time addressing pressing needs, particularly in the water sector.    As the peace process proceeds in Yemen and the security environment allows, USAID will provide the expertise to support the negotiation process while supporting civil society and the inclusion of women and youth.    In Libya, the 2017 funding will support the Government of National Accord and deliver targeted assistance to support a stable political transition.    Where we are able to in the region, we aim to help our local partners address frustrations brought on the people in the streets 5 years ago. In Morocco, USAID is well-positioned to advance the country's critical economic and social reforms.    Among those who benefit from our programs were to teenaged boys in northern Morocco who were planning to head to Syria and stopped in first at a USAID-supported youth organization. A trained youth officer was able to convince them of an alternate path, setting them up, instead, with jobs at a local construction company.    Before I conclude, I would like to speak about Tunisia, which has been relatively successful in its transition, but still needs our support. Tunisia is the only country from the 2011 Arab Awakening that has defined a path toward democracy. The President's 2017 request will provide additional resources to support Tunisia as it consolidates these gains, including expanding economic and governance partnerships between the U.S. and Tunisia.    AID's efforts in Tunisia have created nearly 4,000 sustainable private sector jobs last year, and we expect our interventions will result in more than 5,000 additional jobs this year.    We face significant challenges in the Middle East and North Africa, but the American people can be proud that, through USAID and with the support of Congress, we are helping millions of people in the region, whether it is the girl at the STEM school in Egypt who has conquered intel science or whether it is the teacher and the principal in Jordan who have invited other Syrian children into her classroom. These are some of the concrete examples of our programs.    I am proud of the innovative work that we have been doing to meet the many challenges of the region, and we will continue to work better, smarter, and faster to support the people of the Middle East and North Africa on behalf of the American people.    Thank you for your support, and I look forward to your questions.</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Well, it is not a hypothetical. It exists.    But, staying with the PA, Madam Ambassador, money is fungible, and any amount of money that--oh, Mr. Chairman?</t>
   </si>
   <si>
-    <t>Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Good to see you, Madam Chair.</t>
   </si>
   <si>
@@ -305,9 +275,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Ambassador Patterson, I just want to be clear. You said that Iran under the proposed changes would not have access to the U.S. financial system. Does that mean they would have no even indirect access to the U.S. dollar? In other words, would the dollar be allowed to be used to facilitate transactions between Iran and other countries?</t>
@@ -856,11 +823,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -880,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -908,11 +871,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -932,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -960,11 +919,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -984,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1012,11 +967,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1036,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1064,11 +1015,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1088,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1116,11 +1063,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1140,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1168,11 +1111,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1192,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1220,11 +1159,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1244,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1272,11 +1207,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1296,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1324,11 +1255,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1348,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1376,11 +1303,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1400,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1428,11 +1351,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1452,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1480,11 +1399,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1504,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1532,11 +1447,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1556,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1584,11 +1495,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1608,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1636,11 +1543,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1660,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1688,11 +1591,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1712,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1738,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1764,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1790,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1816,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1842,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1868,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1894,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1920,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1946,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1972,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2000,11 +1879,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2024,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2052,11 +1927,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2076,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2104,11 +1975,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2128,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2156,11 +2023,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2180,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" t="s">
-        <v>59</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2208,11 +2071,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2232,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2260,11 +2119,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2284,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2312,11 +2167,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2336,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2362,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2388,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2414,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2440,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2466,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2492,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2518,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2544,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2572,11 +2407,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2596,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2622,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2648,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2674,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2700,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2726,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2752,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2778,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2804,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2830,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2856,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>97</v>
-      </c>
-      <c r="H79" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2882,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2908,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2934,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2960,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2986,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3012,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3038,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3064,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3092,11 +2887,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3116,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3142,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3168,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3194,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3220,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3246,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3272,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3300,11 +3079,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3324,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3350,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3376,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3402,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3428,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3454,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3480,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3506,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3532,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3560,11 +3319,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3584,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3610,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3636,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3662,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
-      </c>
-      <c r="G110" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3688,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3714,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3740,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3766,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3792,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3820,11 +3559,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3844,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3872,11 +3607,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute. We will then hear from our witnesses.    Without objection, ladies, your prepared statements will be made a part of the record and members may have 5 days to insert statements and questions for the record, subject to the length limitation in the rules.    The chair now recognizes herself for 5 minutes.    We are here today to discuss the President's FY17 budget request for the Middle East and North Africa Region. I fully support the request to honor the terms of the Memorandum of Understanding, MOU, with our closest ally, the Democratic Jewish State of Israel and helping to ensure that she has what she needs to defend herself and her citizens.    In the aftermath of the weak and dangerous Iran nuclear deal and the corresponding race to arms by many of the nations in the region that feel threatened by a newly-empowered Iran, Israel is facing a new dangerous environment, so it is critical that we ensure that Israel's qualitative military edge is intact and vigorously enforced, as our policy stipulates and as our laws state. So, I strongly urge the administration to conclude the negotiations on a new robust MOU with Israel in an expeditious manner and in a way that reflects the new reality that the Jewish State faces in the region.    I am also pleased that the administration is following through with the additional support for Jordan, as agreed upon in last year's MOU, with $1 billion to help the Kingdom cope with the strain on its resources from the Syrian humanitarian crisis and the influx of refugees, as well as help provide Jordan with the tools that it needs to continue to fight on the frontlines against ISIS.    However, this request for Jordan highlights one of the most noteworthy trends of the current request, which is the administration's continued shift to move a significant amount of assistance from the regular Foreign Affairs budget to the Overseas Contingency Operations, OCO accounts. Nearly half of this year's budget request is OCO funds, $3.5 billion of the $7.1 billion for the Middle East and North Africa in non-humanitarian bilateral aid. That is over 100 percent more than last year's request, with almost all of the $1 billion for Jordan coming in OCO. This is a troubling trend that the administration needs to explain in greater detail, as we are seeing funds that should be in the base budget that are being shifted into the OCO fund.    Tunisia is strategically important and this is where the democratic transition has been referred to by the administration as a model for other states in the Arab world. However, when compared to Egypt, Jordan, or even Lebanon, our aid package to Tunisia does not really indicate that the administration views its future as a high priority. The people and Government of Tunisia needs us now more than ever.    While this year's request may represent an increase, foreign military financing assistance for Tunisia's security accounts for $45 million, while slightly more than that is being provided for democracy and governance and economic assistance. Tunisia is facing some trying times at the moment, and we want to support it and ensure that it remains on the transition toward democracy. Yet, the administration does not appear to be making a successful transition a priority in this request.    While Lebanon may be facing significant problems as a result of the Syrian conflict, it has been mired in a political crisis for nearly 2 years and has no elected leader, and concerns remain over Hezbollah and Iran's increasing influence in Lebanon. This raises questions over how our assistance to Lebanon is being used to advance our interests. The same can be said over continued assistance requests for Libya or Yemen, two other countries in dire political straits.    When it comes to strategic interest, in the region, Egypt remains near the top. Egypt's security and stability are key U.S. national security interests, which is why we continue to provide Cairo with the foreign military financing assistance it needs and we will continue to work with Egypt to tackle the terrorist threat, in the Sinai.    Yet, in Egypt we are facing a significant pipeline issue where between $500 million to $700 million in previous years funds have not been spent nor obligated. Yet, the administration continues to request $150 million in ESF for Egypt without presenting a concrete plan on how it will spend these unobligated funds and without having the flexibility to operate in Egypt that we once had.    When we discuss using our assistance as effectively and efficiently as possible, we have to talk about our response to the Syrian humanitarian crisis. The United States has been the single largest donor in response to the Syrian humanitarian crisis by providing over $5 billion and we'll continue to do what we can, but our policies to get at the root cause of the problem have failed and Assad still remains in power. While most of this assistance is being funneled through the U.N., it raises questions about whether or not we are maximizing our assistance in this humanitarian response.    But when talking about using our assistance effectively in furtherance of our interests, perhaps the most egregious failure of this budget request is the continued request by the administration for hundreds of millions in assistance for the West Bank and Gaza. The Palestinian Authority and Abu Mazen have continued to incite violence against Israel, have continued to support terrorism, have continued to fund the salaries of terrorists in Israeli prisons as well as their family members. And the Palestinians continue to seek to de-legitimize the Jewish State at the United Nations and are moving forward with plans to undermine the peace process by seeking unilateral statehood. The administration may argue that it has sought less for the Palestinian Authority in this year's budget request, but we should have cut off all assistance to the PA for violating several provisions of U.S. law.    So, I welcome our distinguished guests. I look forward to hearing from the administration about the justifications for its budget request and how these line up with the administration's objectives for the coming year in the Middle East and North Africa.    With that, I am so pleased to yield to the ranking member, my good friend, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you, Madam Chairman. I hope you feel better.    And thank you, Assistant Administrator Alexander and Assistant Secretary Patterson, for being here today. It is a pleasure to welcome you back to the subcommittee. We look forward to a positive discussion about the region.    I want to take a moment, again, to thank the hard-working USAID and State Department employees and Foreign Service Officers who work in dangerous and difficult places to help those in need and promote American values around the world. Their work too often goes unnoticed and underappreciated, and I just wanted to take a moment today to highlight what they do and to thank them for it.    It is no doubt that some of our greatest foreign policy challenges are in the Middle East and North Africa. New threats have emerged that endanger the security of the United States, our regional interests, and our regional partners. This year's State Department budget request for the region is $7.3 billion, a 9-percent increase from what we spent in 2015. Of the $6.1 billion requested in global humanitarian aid, $2 billion is to address the humanitarian crisis in Syria.    For over 5 years, the region has been struggling to deal with the effects of the war in Syria. The devastating humanitarian crisis will certainly have implications not just this coming year, but for years to come and for decades to come.    I have repeatedly expressed my deep frustration over the international response to the humanitarian crisis in Syria, but I would like to applaud the administration for the contribution that it has made to address this crisis, the largest from any donor country to date.    But, as the crisis continues to drag on, we must look for sustainable ways to support those displaced by war. Efforts to shore up host countries like Lebanon and Jordan must focus on increasing capacity of schools and healthcare centers, finding work that will allow refugees to contribute to the communities that are hosting them. I was pleased to see the conclusion last spring of the new MOU with our ally Jordan that will help to strengthen one of our best partners in the fight against ISIS.    We all know that the only end to this crisis will come through a political solution. Speaking yesterday, Ambassador Power said there is, and I quote, ``an inextricable linkage between the political transition negotiations--which, of course, urgently have to take place--the deterioration in humanitarian access, and the escalation of violence on the ground, which is having a very negative bearing on the cessation of hostilities, which had reduced violence substantially.'' There is so much that we have to be engaged in at so many levels in Syria.    In addition to Syria, the humanitarian situation in Yemen continues to worsen. As political talks stall, the needs of those on the ground are increasing, and the U.S. and other donor countries must be able to respond accordingly.    In Tunisia, we look for ways to bolster the country's economy and nascent democracy while stabilizing the security situation. The Tunisian Government has thus far responded well to the number of deadly attacks over the past year, and we have seen positive results from our efforts to help Tunisian security forces professionalize in these difficult circumstances.    However, it is troubling that the largest contingent of foreign fighters to ISIS are Tunisian, and the entrance of ISIS to Libya will continue to pose a threat to the region, and especially to Tunisia.    The security situation in Libya is tenuous. Just last week, U.S. General David Rodriguez, the outgoing Commander of AFRICOM, said that the number of ISIS fighters in Libya has doubled in the past year. That is why it is more important than ever that Libya move forward with implementing a unity government. A strong central government backed by Libyan security forces is the only way to keep ISIS at bay.    Combating ISIS in North Africa will require strong cooperation across the Maghreb. Morocco and Algeria must play a significant role in intelligence-sharing, both with its neighbors as well as with the U.S. and Europe, to track foreign fighters and terrorist cells. As we work to combat extremism, we appreciate the cooperation between Egypt and Israel in the Sinai and Egypt's efforts to control the flow of dangerous materials in and out of Gaza and destroy Hamas' terror tunnels.    But, however strong and necessary our security cooperation and coordination is, we must also prioritize human rights. Human rights must always be a part of the conversation, even when difficult. And I am troubled by continued reports of mass sentencing, restrictions on civil society, and most recently, the potential reopening of the NGO case that saw 43 NGO workers arrested and convicted, including several Americans.    We have also deepened our coordination with our GCC partners to confront mutual security threats, including Iranian aggression. These countries must also be committed to countering violent Islamic extremism and speaking out against the radicalism and terrorism. We must always be sure that nothing we do in the region threatens Israel's qualitative military edge. Israel remains under constant threat from Palestinian terror attacks, Hamas rockets, Hezbollah advanced weaponry, and ballistic missiles launched from Iran emblazoned with the words, ``Israel must be wiped off the earth.'' I would urge the administration to ramp up its efforts to conclude a new Memorandum of Understanding that will ensure that Israel has what she needs to defend herself for years to come.    As we continue to work toward the goal of two states for two peoples, I would hope that the administration will work to prevent any attempts to circumvent the direct negotiation process, which is the only way that peace can be achieved. Our efforts would be better served urging President Abbas to build up state institutions, to reform his economy, to commit to transparency and accountability, and to return to the negotiating table.    With respect to Iran, I cannot urge the administration enough to fulfill its promises to crack down on Iran's myriad of bad behavior, including the repeated missile tests in blatant disregard of international law, its egregious human rights violations, and its continued support for terrorism. The U.S. Navy last week intercepted a shipment of Iranian weapons bound for Yemen, and this continued bellicosity is unacceptable. No agreement precludes this country from sanctioning every person, every entity, and every sector involved in these dangerous activities. The Nuclear Agreement, as we all know, was meant to apply only to nuclear activities and the nuclear program. International law and U.S. law permits, and I think requires us, to take strong action to stop and to combat Iran's bad behavior in these other areas.    And I would also be remiss if, Secretary Patterson--if, Madam Chairman, you will just grant me an extra 30 seconds--I would be remiss if I didn't once again implore the administration to continue to working to bring home my constituent Robert Levinson. Just days before the ninth anniversary of Bob's disappearance last month, I had the honor of joining Bob's wife Christine and the Levinson children at a rally in Bob's hometown of Coral Springs in south Florida. No family deserves to go through what the Levinsons are going through, being away from their husband, their father, and grandfather, with no answers for 9 years. And I know that Secretary Kerry continues to push for Bob's return, but I would ask that this be the highest priority in every single discussion with the Iranians.    There is no substitute for robust American engagement and leadership in this challenging region as a whole, and I look forward to hearing how the President's budget request will help fulfill that goal and protect the security of this country and of our friends and allies in the Middle East and North Africa.    Thank you, Madam Chairman. I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Madam Chair, for your dynamic leadership.    Secretary Patterson, you have provided that the top line for the State Department and for the Agency of International Development will have a budget of over $50 billion with around $35 billion in the base budget and $15 billion in OCO. I have seen firsthand America being successful in the Middle East and around the world to aid our allies for their citizens to have fulfilling lives.    The budget number is particularly significant this year because of the threat of Iran who stands to gain as much or two or three times this amount in cash windfall due to unfrozen assets as part of the tragic Iranian nuclear deal. We have seen Iranian support and financing of the Houthi rebels in Yemen, funding and support for Hamas in Hezbollah, providing rockets to threaten Israel, funding for terrorists and insurgents in Iraq, and support for Afghani Taliban for their terrorist activities. All of these groups have a goal of killing American military and bringing mass murder to families at home in the United States.    The concerns of Congress of the failing Iranian nuclear deal have been bipartisan. I particularly appreciate today the ranking member Ted Deutch raising issues and concerns. With all the United States can accomplish in the Middle East with the funding that we are providing, the damage that Iran stands to do in the region with $150 billion of cash windfall is dangerous. I look forward to continuing to work with my colleagues on the committee in ensuring proper oversight of the implementation of the bizarre Iranian nuclear deal.    Thank you.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Madam Chair and Ranking Member Deutch, for calling this hearing to assess President Obama's Fiscal Year 2017 budget request for the Middle East and North Africa.    And thank you, Ambassador Patterson and Administrator Alexander, for being here today. I look forward to hearing from you, and I want to thank you both for your dedication and your service to our country.    The Fiscal Year 2017 request of $7.17 billion for the region is an increase of almost 9 percent over Fiscal Year 2015 enacted levels. The vast security and humanitarian needs in the region certainly justify increased spending levels, and I look forward to hearing from our witnesses about how the United States will make sure this money is used for effectively to achieve American strategic priorities.    This budget request is an issue of critical importance, especially during this time of great flux and threats to global security. From the civil war in Syria and its subsequent humanitarian and refugee crisis to the threat of ISIL, Boko Haram, and other extremist groups who seek to undermine stability and security throughout the region, to many humanitarian perils faced by millions of people in the region, it is more important than ever that U.S. foreign assistance is targeted, responsive, and able to meet our principal goals.    As Ambassador Power states in her written testimony, the Middle East and North Africa present the most demanding challenges to U.S. foreign policy and national security. Through the work of the State Department and USAID, we must remain engaged and do all that we can to help the nations of this region to be more self-sufficient in terms of providing for its people through good governance, democratization, and less susceptible and better able to repel extremist threats.    Thank you, and I look forward to your testimony. And I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Madam Chair.    And for each of our two witnesses, it is incredibly an opportune time for you to be here. I have two areas of particular concern that I will be following up with questions on.    Ambassador Alexander, in your case the education of as many as 800,000 Syrians in Lebanon and countless more internally displaced concerns me in that USAID and all of our refugee organizations seem to be looking at doing, but not accomplishing the ultimate goal. Lebanon is ill-equipped to educate 500 to 800,000 additional students, and even if they were, they have no structural plan to do so.    Some of the programs USAID has begun with are interesting, including the radio broadcast as a form of education, but they fall far short of two goals. One is education that can be verified for purposes of higher education later. The second is a form of education that clearly allows us to have our imprint of non-radicalization on that education process. I think both of those fall clearly within, between the two of you, a requirement to make sure there is a strategic plan for all the youth in the region, both those who work much of the day and get limited education and those who may be able to participate in more conventional.    Secondly, Ambassador Patterson, you and I have visited many times. You are always at the center of tough situations. Your time in Egypt causes me to say this today: The multinational force observers has out lived its historic role. That has been made very clear by my own and another Congressman's visit to the region into the North Station. They are today simply sitting ducks hunkered down, highly protected, including massive EOD assets, for purposes of a count that has not been miscounted or misunderstood or argued for more than 8 years, even with a minor exception, and more than a decade without any real argument.    As you know, Israel today counts on very large forces of Egyptians to help with the fight against ISIS in the Sinai. I urge you to recognize that now is the time to recognize that that force existed, although technically to count number of soldiers and police, it really existed to ensure a peace in the region between two countries. Today that force must be positioned to assist both Israel and the Egyptians in recognizing where ISIS and Hamas are operating, what they are doing, and providing the eyes necessary to help them do their job better. I am not calling for a moment for the withdrawal of those troops or those personnel, brave as they are, but I want their purpose to be one of peacekeeping between two allies today in the war against ISIS. I hope you can take that back to Secretary Kerry on behalf of the committee.    And I thank the chairwoman for her indulgence.</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Madam Chair.    I just thank you all for being here again, once again.    I had the honor of traveling with our chair, Mr. Royce, this past week. We were in Jordan, Iraq, and Tunisia, and it was quite an enlightening and rigorous schedule. Madam Chair, my back is still hurting from the body armor really.    But some takeaways. It is not only the threat of terrorism, which is real in so many of these countries in the Middle East, but they are in terrible economic crisis, to the point where--I will use Iraq as an example. I mean, they are not even able to pay for their own army.    There are a lot of moving parts, but what was very clear to me, No. 1, our own security and the security of allies, not only in the Middle East, but in Europe and other places, will be affected greatly by the stability in the Middle East.    My second takeaway was that, or this may be my third takeaway, is that our leadership is absolutely needed. There is no question about it, not only from a military point of view, but just in terms of economic development, education, humanitarian, other humanitarian assistance.    So, I very much look forward to what you have to say this morning. And again, thank you for your service.</t>
   </si>
   <si>
@@ -103,6 +142,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. I would thank Chairwoman Ros-Lehtinen and Ranking Member Deutch for holding this hearing, and to our esteemed witnesses for testifying and sharing their valuable insight on an unstable, but crucial part of the world.    Ambassador Patterson, before assuming your current post, you were our Ambassador to Egypt and served during a very turbulent time. You had a unique perspective on the Muslim Brotherhood, one that I am hoping to hear more about from you today. For reasons unclear to me, the State Department still refuses to recognize the Muslim Brotherhood as a terrorist organization.    I am proud to cosponsor legislation in the House, the Muslim Brotherhood Terrorist Designation Act, and I am eager to see it on the Floor for a vote in front of the full House. In recent years, the copts have suffered terrible attacks and violence. The attacks were clearly well-planned and coordinated, not random acts of violence, as some have suggested. After listening to their rhetoric laced from remarks coming from their leadership, it is not surprising that they would take out their anger on Egypt's most vulnerable. To make matters worse, the Muslim Brotherhood's official account still espouses and congratulates violence while implicitly, if not explicitly, trying to encourage violence against the state and religious minorities.    I am disappointed the State Department hosted them for official meetings last year. When I questioned Secretary Kerry about this, he claimed that the State Department somehow didn't know they were part of the Muslim Brotherhood until after the visit, something I find difficult to believe.    As a country that promotes religious tolerance and acceptance all over the world, I find it reprehensible that the administration claims to promote these values, yet goes around and invites and holds meetings with the various people that have dedicated themselves to religious intolerance and violence.    I look forward to your testimony and explanation as to how much more damage the Muslim Brotherhood needs to cause before we call them terrorists.    Thank you. I yield back.</t>
   </si>
   <si>
@@ -112,12 +157,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Patterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Patterson. Thank you, Madam Chairman, Ranking Member Deutch, members of the subcommittee. Thank you for inviting us to appear before you today to discuss the President's Fiscal Year 2017 budget request. We appreciate the subcommittee's continued support and congratulate its initiatives, most recently, for the Hezbollah International Financing Prevention Act of 2015.    The Middle East and North Africa present the most demanding challenges to U.S. foreign policy and to our national security. As you know, the administration's highest priority continues to be the safety and security of the American people and the American homeland. This is why we are leading the global coalition that will defeat ISIL, are actively engaged in supporting the cessation of hostilities and political negotiations in Syria, and are advancing peace in Yemen and Libya. Each of these conflicts poses its own unique challenges to our national security with the potential for serious economic repercussions.    Continued full implementation of the Joint Comprehensive Plan of Action will ensure Iran's nuclear program remains exclusively peaceful. Nevertheless, we remain deeply concerned about Iran's destabilizing activities.    The President's foreign assistance request for the Bureau of Near Eastern Affairs is $7.3 billion. This includes $3.1 billion to support our enduring commitment to Israel's security, $1.5 billion for bilateral cooperation with Egypt to advance our national and regional security interests, and $1 billion to continue our strategic partnership with Jordan on issues ranging from countering violent extremism to advancing Middle East peace.    In the coming year, potential openings in Yemen and Libya further highlight how we must work to support U.S. engagement. We must be poised to further our relationship with the Libyan Government of National Accord as it works to reunite the country, revive the living economy, and confront ISIL. In Yemen, we must help the Yemenis reestablish governance, reclaim space from AQAP, and counter a growing ISIL threat, as well as revise their badly-damaged economy.    Our capacity to react quickly in changing environments like these will require your continued support and flexibility. However, we cannot focus on crises alone. There are examples of success in the region, and it is in our long-term interest to invest strategically.    In Tunisia, we see a burgeoning democracy in need of our support, and in Morocco our strong partnership spans from security cooperation to addressing economic challenges. This budget provides the resources to support U.S. engagement with both Morocco and Tunisia.    As part of our efforts to degrade and defeat ISIL, the U.S. is leading a coalition of 66 states and organizations. The request also includes funding to provide training and equipment to forces fighting ISIL, help stabilize communities liberating from ISIL and Syria and Iraq, strengthens our regional partners, and supports a political solution to the Syrian civil war.    For Iraq, the FY17 request includes $510 million, an increase over previous years, largely to provide increased economic assistance to stabilize the Iraqi economy and maintain critical security assistance.    In Syria, the request of nearly $239 million will provide support to the moderate Syrian opposition to help achieve a political solution and counter extremist threats, including from ISIL and Jabhat al-Nusra.    In Jordan, we remain a strong supporter of the government's efforts to maintain security, stability, and prosperity, particularly in light of the crises on Jordan's border.    And in Lebanon, we are supporting their efforts to cope with the spillover effects of the crisis in Syria.    Our request also represents our firm commitment to working with Israel and other regional partners to counter Iran's destabilizing activities in the region. Let me assure you that Israel's security remains a top priority for the administration. It is critical for both the Israelis and the Palestinians that steps are taken to promote stability. So, we are requesting $364 million in foreign assistance to support the Palestinian people with programs to bolster economic development, improve health and education, and enhance security on the ground.    In Egypt, we have long enjoyed a strategic relationship which furthers our national interests. Nonetheless, we continue to press the Egyptians about our concerns regarding their human rights record.    Madam Chairman, I also want to stress the importance of our regional programs. They not only complement our ongoing bilateral assistance, but they are also a tool for advancing our interests.    The Middle East Partnership Initiative furthers U.S. engagement with civil society across the region. It empowers women, fosters entrepreneurship, engages at-risk youth, and develops the capacity of local organizations.    I want to thank this subcommittee for your ongoing support as we continue to advance our interests in the Middle East. I look forward to answering your questions.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you, Madam Ambassador.</t>
   </si>
   <si>
+    <t>Alexander</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Alexander. Thank you, Chairman Ros-Lehtinen and Ranking Member Deutch, members of the subcommittee. We appreciate the opportunity to be up here to talk about the President's Fiscal Year 2017 budget.    The region is faced with complex challenges driven by deep political divides, economic and social forces. It is critical that the U.S. maintain its engagement and interest in this region. Conflict and the resulting humanitarian and refugee crisis have significantly compounded the challenges. These conflicts have cut economic output in Syria by 30 percent. The influx of refugees has lowered wages in some of the most vulnerable host communities. And most alarming is 13 million children are out of school due to this conflict.    It may be useful to think of USAID's response in three critical areas: Mitigating the human impact of ongoing conflicts, supporting core U.S. national security objectives, and fostering inclusive development and reform opportunities as they arise. My statement for the record includes more details of AID's priorities, but I wanted to go through a few here.    Serious development challenges and indicators show a rollback of nearly four decades due to the conflict. In addition to the U.S. remaining the world's largest donor of humanitarian assistance for the Syrian conflict, the President's budget will request continued American people's support for the development needs within Syria as well as critical support for Syria's neighbors.    The crisis has placed an enormous strain on the neighbors, many neighboring countries, including our ally Jordan. We continue our six-decade partnership with Jordan to address the development challenges, including low economic growth, overcrowded schools, and scarce water resources.    NBC Nightly News recently did a story about a school principal in Jordan who was trying to talk about the overcrowding in her school and that Syrian parents continued to come and ask that their children be allowed in. She offered that they could come if they just brought a chair. We work with this principal and thousands of other educators like her to make sure that we are providing these services.    In Lebanon, some estimates say that one out of every three people is a refugee. The President's request would support the Lebanese communities hosting refugees, helping them provide basic services like education, water, infrastructure, and support municipalities and civil societies, as well as job creation and economic growth activities.    For Iraq, the President's 2017 request includes an increase of funding to help address the grave economic challenges that they are facing. We will also work with Baghdad and the local governments in support of decentralization efforts. Our support will ease the burden of Iraq's fiscal crisis as it struggles to defeat ISIL and stabilize liberated areas.    The U.S. Government and the American people have a longstanding relationship with Egypt and the Egyptian people. USAID continues to work in partnership with the Egyptian people, but we remain deeply concerned about the restrictions in space for civil society and the reported investigations in NGOs by the Government of Egypt. USAID and the State Department continue to engage with our Egyptian counterparts on this issue.    Given the current challenging environment, AID continues to focus its programs in areas where we believe we can achieve results. In the West Bank and Gaza, U.S. assistance to Palestinian people is a key part of the U.S. commitment to negotiate a two-state solution. Our assistance contributes to building a more democratic, stable, prosperous, and secure Palestinian society, a goal that is in the interest not only of the Palestinian, but of Israel and the United States as well.    For Fiscal Year 2017, we will promote stability in the West Bank by improving service provision and healthcare, education, water, and roads, while also supporting the private sector and civil society. In Gaza, we will provide needed humanitarian assistance while at the same time addressing pressing needs, particularly in the water sector.    As the peace process proceeds in Yemen and the security environment allows, USAID will provide the expertise to support the negotiation process while supporting civil society and the inclusion of women and youth.    In Libya, the 2017 funding will support the Government of National Accord and deliver targeted assistance to support a stable political transition.    Where we are able to in the region, we aim to help our local partners address frustrations brought on the people in the streets 5 years ago. In Morocco, USAID is well-positioned to advance the country's critical economic and social reforms.    Among those who benefit from our programs were to teenaged boys in northern Morocco who were planning to head to Syria and stopped in first at a USAID-supported youth organization. A trained youth officer was able to convince them of an alternate path, setting them up, instead, with jobs at a local construction company.    Before I conclude, I would like to speak about Tunisia, which has been relatively successful in its transition, but still needs our support. Tunisia is the only country from the 2011 Arab Awakening that has defined a path toward democracy. The President's 2017 request will provide additional resources to support Tunisia as it consolidates these gains, including expanding economic and governance partnerships between the U.S. and Tunisia.    AID's efforts in Tunisia have created nearly 4,000 sustainable private sector jobs last year, and we expect our interventions will result in more than 5,000 additional jobs this year.    We face significant challenges in the Middle East and North Africa, but the American people can be proud that, through USAID and with the support of Congress, we are helping millions of people in the region, whether it is the girl at the STEM school in Egypt who has conquered intel science or whether it is the teacher and the principal in Jordan who have invited other Syrian children into her classroom. These are some of the concrete examples of our programs.    I am proud of the innovative work that we have been doing to meet the many challenges of the region, and we will continue to work better, smarter, and faster to support the people of the Middle East and North Africa on behalf of the American people.    Thank you for your support, and I look forward to your questions.</t>
   </si>
   <si>
@@ -166,6 +217,9 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Well, it is not a hypothetical. It exists.    But, staying with the PA, Madam Ambassador, money is fungible, and any amount of money that--oh, Mr. Chairman?</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Good to see you, Madam Chair.</t>
   </si>
   <si>
@@ -275,6 +329,12 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Ambassador Patterson, I just want to be clear. You said that Iran under the proposed changes would not have access to the U.S. financial system. Does that mean they would have no even indirect access to the U.S. dollar? In other words, would the dollar be allowed to be used to facilitate transactions between Iran and other countries?</t>
@@ -773,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2813 +863,3297 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>105</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G98" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G104" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G105" t="s">
+        <v>32</v>
+      </c>
       <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G108" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
       <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G110" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>32</v>
+      </c>
       <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
       <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
       <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G117" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99756.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400433</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Wilson</t>
@@ -833,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,3294 +878,3544 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
-      </c>
-      <c r="G76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
-      </c>
-      <c r="G78" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
-      </c>
-      <c r="G82" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
-      </c>
-      <c r="G84" t="s">
-        <v>47</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
-      </c>
-      <c r="G86" t="s">
-        <v>47</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
-      </c>
-      <c r="G90" t="s">
-        <v>47</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
-      </c>
-      <c r="G92" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
-      </c>
-      <c r="G94" t="s">
-        <v>47</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
-      </c>
-      <c r="G98" t="s">
-        <v>50</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
-      </c>
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>54</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
-      </c>
-      <c r="G104" t="s">
-        <v>50</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
-      </c>
-      <c r="G108" t="s">
-        <v>47</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
-      </c>
-      <c r="G110" t="s">
-        <v>47</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>51</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
-      </c>
-      <c r="G112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>51</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
-      </c>
-      <c r="G117" t="s">
-        <v>47</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>51</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
